--- a/Code/Results/Cases/Case_3_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.89426056774522</v>
+        <v>18.22811586378697</v>
       </c>
       <c r="C2">
-        <v>7.19517239570321</v>
+        <v>6.197056111563782</v>
       </c>
       <c r="D2">
-        <v>5.991041363265156</v>
+        <v>8.632875937323508</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.62565053330803</v>
+        <v>42.49390039646894</v>
       </c>
       <c r="G2">
-        <v>2.135525541827322</v>
+        <v>3.739678117299573</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.00434741073573</v>
+        <v>14.38231300694844</v>
       </c>
       <c r="L2">
-        <v>6.727983589355563</v>
+        <v>10.66306920895478</v>
       </c>
       <c r="M2">
-        <v>11.85251590149378</v>
+        <v>17.16542106310357</v>
       </c>
       <c r="N2">
-        <v>17.39190347488545</v>
+        <v>24.61716378468749</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.98273888752503</v>
+        <v>18.07125904828559</v>
       </c>
       <c r="C3">
-        <v>6.847159019241646</v>
+        <v>6.063082965097675</v>
       </c>
       <c r="D3">
-        <v>6.054233844057615</v>
+        <v>8.641722738869484</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.62919425158017</v>
+        <v>42.3529784190658</v>
       </c>
       <c r="G3">
-        <v>2.14411991745895</v>
+        <v>3.74276361763592</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.30743790530074</v>
+        <v>14.27024283754629</v>
       </c>
       <c r="L3">
-        <v>6.637549425448813</v>
+        <v>10.67242874732474</v>
       </c>
       <c r="M3">
-        <v>11.51308518513938</v>
+        <v>17.1531895000018</v>
       </c>
       <c r="N3">
-        <v>17.46686585144707</v>
+        <v>24.64478375928866</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.40877476978024</v>
+        <v>17.97924663105714</v>
       </c>
       <c r="C4">
-        <v>6.625594213955694</v>
+        <v>5.978027535611479</v>
       </c>
       <c r="D4">
-        <v>6.093080408373732</v>
+        <v>8.647278485840962</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.02871525908601</v>
+        <v>42.27452276907935</v>
       </c>
       <c r="G4">
-        <v>2.149537703440104</v>
+        <v>3.744757467297474</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.86897366369815</v>
+        <v>14.20488810978653</v>
       </c>
       <c r="L4">
-        <v>6.585037157885103</v>
+        <v>10.67973122093919</v>
       </c>
       <c r="M4">
-        <v>11.3074737415537</v>
+        <v>17.14894012836349</v>
       </c>
       <c r="N4">
-        <v>17.51806499194727</v>
+        <v>24.66355115299412</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.17154684849144</v>
+        <v>17.94286994874786</v>
       </c>
       <c r="C5">
-        <v>6.533344420153204</v>
+        <v>5.942684148023247</v>
       </c>
       <c r="D5">
-        <v>6.108939915742095</v>
+        <v>8.649573815852971</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.78704001003469</v>
+        <v>42.24459811038556</v>
       </c>
       <c r="G5">
-        <v>2.151782427840559</v>
+        <v>3.74559504503969</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.68784064895851</v>
+        <v>14.17915078335512</v>
       </c>
       <c r="L5">
-        <v>6.564394500984415</v>
+        <v>10.68309843793562</v>
       </c>
       <c r="M5">
-        <v>11.22447746346427</v>
+        <v>17.14803057748789</v>
       </c>
       <c r="N5">
-        <v>17.54018567453396</v>
+        <v>24.67165372008756</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.13196270605151</v>
+        <v>17.93689829509151</v>
       </c>
       <c r="C6">
-        <v>6.517908868410463</v>
+        <v>5.936774795921396</v>
       </c>
       <c r="D6">
-        <v>6.111575631490891</v>
+        <v>8.649956850834821</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.74709784003765</v>
+        <v>42.2397532132759</v>
       </c>
       <c r="G6">
-        <v>2.152157436126505</v>
+        <v>3.745735640805469</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.65762202971772</v>
+        <v>14.17493191744359</v>
       </c>
       <c r="L6">
-        <v>6.561012430551462</v>
+        <v>10.68368120600283</v>
       </c>
       <c r="M6">
-        <v>11.21074647727874</v>
+        <v>17.14792925344489</v>
       </c>
       <c r="N6">
-        <v>17.54393347103577</v>
+        <v>24.6730266052873</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.405588542227</v>
+        <v>17.97875146223086</v>
       </c>
       <c r="C7">
-        <v>6.624358001322125</v>
+        <v>5.977553618392738</v>
       </c>
       <c r="D7">
-        <v>6.093294154531917</v>
+        <v>8.647309314420632</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.02544346347472</v>
+        <v>42.27411088699623</v>
       </c>
       <c r="G7">
-        <v>2.149567825088017</v>
+        <v>3.744768661548654</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.86654048662068</v>
+        <v>14.20453734928192</v>
       </c>
       <c r="L7">
-        <v>6.584755703429926</v>
+        <v>10.67977504742072</v>
       </c>
       <c r="M7">
-        <v>11.3063510986081</v>
+        <v>17.14892453072561</v>
       </c>
       <c r="N7">
-        <v>17.51835828686416</v>
+        <v>24.66365858615805</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.58307171658489</v>
+        <v>18.17316316103315</v>
       </c>
       <c r="C8">
-        <v>7.076823291177433</v>
+        <v>6.151454133579779</v>
       </c>
       <c r="D8">
-        <v>6.012831564706677</v>
+        <v>8.635900743341073</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.2798163786045</v>
+        <v>42.44364629340392</v>
       </c>
       <c r="G8">
-        <v>2.138460608010029</v>
+        <v>3.740721432848829</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.76635147140872</v>
+        <v>14.34296987342779</v>
       </c>
       <c r="L8">
-        <v>6.696175499044609</v>
+        <v>10.66597364402041</v>
       </c>
       <c r="M8">
-        <v>11.73495019134202</v>
+        <v>17.16052824229754</v>
       </c>
       <c r="N8">
-        <v>17.4166496181763</v>
+        <v>24.62631172022163</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.77011626335242</v>
+        <v>18.58672451856243</v>
       </c>
       <c r="C9">
-        <v>7.901173208160668</v>
+        <v>6.469468434205189</v>
       </c>
       <c r="D9">
-        <v>5.854543498510205</v>
+        <v>8.614501269803004</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.82292709379498</v>
+        <v>42.8392972806772</v>
       </c>
       <c r="G9">
-        <v>2.117722239246937</v>
+        <v>3.733569035695276</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.56147035626011</v>
+        <v>14.64064215197469</v>
       </c>
       <c r="L9">
-        <v>6.938641113940491</v>
+        <v>10.6512415297636</v>
       </c>
       <c r="M9">
-        <v>12.59410780620108</v>
+        <v>17.20904494051237</v>
       </c>
       <c r="N9">
-        <v>17.26039051563423</v>
+        <v>24.56742986472188</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.29456177899898</v>
+        <v>18.90775672893032</v>
       </c>
       <c r="C10">
-        <v>8.468747207733614</v>
+        <v>6.688082070384523</v>
       </c>
       <c r="D10">
-        <v>5.736616268677855</v>
+        <v>8.599358102883734</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.73475587204459</v>
+        <v>43.16723786505373</v>
       </c>
       <c r="G10">
-        <v>2.103008829175018</v>
+        <v>3.728786628824841</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.97189796019479</v>
+        <v>14.873583012511</v>
       </c>
       <c r="L10">
-        <v>7.131486622369068</v>
+        <v>10.64791801145669</v>
       </c>
       <c r="M10">
-        <v>13.2326055169969</v>
+        <v>17.26021952816489</v>
       </c>
       <c r="N10">
-        <v>17.17520164347941</v>
+        <v>24.53292803401937</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.96940733312806</v>
+        <v>19.05697176914917</v>
       </c>
       <c r="C11">
-        <v>8.718960166214531</v>
+        <v>6.784083823303747</v>
       </c>
       <c r="D11">
-        <v>5.682282422765343</v>
+        <v>8.592591761483728</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.61296245486059</v>
+        <v>43.32420334655774</v>
       </c>
       <c r="G11">
-        <v>2.096401163512694</v>
+        <v>3.726712381589509</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.58590142366449</v>
+        <v>14.98225321454209</v>
       </c>
       <c r="L11">
-        <v>7.222444045310554</v>
+        <v>10.64802918043385</v>
       </c>
       <c r="M11">
-        <v>13.52400187377163</v>
+        <v>17.28682502319228</v>
       </c>
       <c r="N11">
-        <v>17.14369682315183</v>
+        <v>24.51913568760561</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.22226145202039</v>
+        <v>19.11388379501154</v>
       </c>
       <c r="C12">
-        <v>8.812597559402841</v>
+        <v>6.819927446854318</v>
       </c>
       <c r="D12">
-        <v>5.661577821710675</v>
+        <v>8.590046896974343</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.946706352014</v>
+        <v>43.38473173355249</v>
       </c>
       <c r="G12">
-        <v>2.093908760124338</v>
+        <v>3.725941392642641</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.81456743858584</v>
+        <v>15.02375847768839</v>
       </c>
       <c r="L12">
-        <v>7.257356090974707</v>
+        <v>10.64830402943369</v>
       </c>
       <c r="M12">
-        <v>13.63444342768708</v>
+        <v>17.29737326164839</v>
       </c>
       <c r="N12">
-        <v>17.13288581722426</v>
+        <v>24.51418660757474</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.16792452491434</v>
+        <v>19.10160943403612</v>
       </c>
       <c r="C13">
-        <v>8.792479902713669</v>
+        <v>6.812230788928238</v>
       </c>
       <c r="D13">
-        <v>5.666043212235884</v>
+        <v>8.590594208192268</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>40.87477600407049</v>
+        <v>43.37164793213128</v>
       </c>
       <c r="G13">
-        <v>2.094445151904178</v>
+        <v>3.726106796058088</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.76548895032676</v>
+        <v>15.01480437975836</v>
       </c>
       <c r="L13">
-        <v>7.24981623817673</v>
+        <v>10.64823449528827</v>
       </c>
       <c r="M13">
-        <v>13.61065406002315</v>
+        <v>17.29508054278421</v>
       </c>
       <c r="N13">
-        <v>17.13516307570193</v>
+        <v>24.51524030126387</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.99026376991401</v>
+        <v>19.06164607134108</v>
       </c>
       <c r="C14">
-        <v>8.726685838433962</v>
+        <v>6.787043002963744</v>
       </c>
       <c r="D14">
-        <v>5.680581826117863</v>
+        <v>8.592382046294043</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.64039605216581</v>
+        <v>43.32916140893022</v>
       </c>
       <c r="G14">
-        <v>2.096195931416958</v>
+        <v>3.726648662064826</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.60479018869931</v>
+        <v>14.98566097875842</v>
       </c>
       <c r="L14">
-        <v>7.225306862175858</v>
+        <v>10.64804713173815</v>
       </c>
       <c r="M14">
-        <v>13.53308621459424</v>
+        <v>17.28768337721156</v>
       </c>
       <c r="N14">
-        <v>17.14278449648037</v>
+        <v>24.51872303584139</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.88109058769286</v>
+        <v>19.03721896373105</v>
       </c>
       <c r="C15">
-        <v>8.686241355573131</v>
+        <v>6.771547908993336</v>
       </c>
       <c r="D15">
-        <v>5.689469311684904</v>
+        <v>8.593479409280132</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.49698567037678</v>
+        <v>43.30327807164682</v>
       </c>
       <c r="G15">
-        <v>2.097269528355055</v>
+        <v>3.726982454376524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.50586090948915</v>
+        <v>14.96785489643927</v>
       </c>
       <c r="L15">
-        <v>7.210355317903561</v>
+        <v>10.6479626566822</v>
       </c>
       <c r="M15">
-        <v>13.48558526353672</v>
+        <v>17.28321388432253</v>
       </c>
       <c r="N15">
-        <v>17.14760100413511</v>
+        <v>24.52089197089433</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.2500818901461</v>
+        <v>18.89806489049617</v>
       </c>
       <c r="C16">
-        <v>8.452237359826301</v>
+        <v>6.681737504087555</v>
       </c>
       <c r="D16">
-        <v>5.740150723053367</v>
+        <v>8.599802744913907</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.67753003569997</v>
+        <v>43.15713387907557</v>
       </c>
       <c r="G16">
-        <v>2.103442166777358</v>
+        <v>3.72892421698855</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.93122640443148</v>
+        <v>14.8665326258405</v>
       </c>
       <c r="L16">
-        <v>7.125607636509079</v>
+        <v>10.64794335357515</v>
       </c>
       <c r="M16">
-        <v>13.21357733485651</v>
+        <v>17.25854731037822</v>
       </c>
       <c r="N16">
-        <v>17.17741280768915</v>
+        <v>24.53386769881821</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.85818306325539</v>
+        <v>18.81347697803073</v>
       </c>
       <c r="C17">
-        <v>8.306661151216757</v>
+        <v>6.625748224009552</v>
       </c>
       <c r="D17">
-        <v>5.771045096554054</v>
+        <v>8.603713108737194</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.17695954743715</v>
+        <v>43.06945174775024</v>
       </c>
       <c r="G17">
-        <v>2.10724906981315</v>
+        <v>3.730141310372184</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.57172236190853</v>
+        <v>14.80504284198866</v>
       </c>
       <c r="L17">
-        <v>7.074447304383402</v>
+        <v>10.64834678771143</v>
       </c>
       <c r="M17">
-        <v>13.04691787293213</v>
+        <v>17.24426364475044</v>
       </c>
       <c r="N17">
-        <v>17.1976101222131</v>
+        <v>24.54231534425355</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.6310179747011</v>
+        <v>18.76512615972327</v>
       </c>
       <c r="C18">
-        <v>8.222175809768444</v>
+        <v>6.593221041815343</v>
       </c>
       <c r="D18">
-        <v>5.788751962560335</v>
+        <v>8.605973775379553</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.88984502062492</v>
+        <v>43.01975387472878</v>
       </c>
       <c r="G18">
-        <v>2.10944691606857</v>
+        <v>3.730850889432067</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.36233848976752</v>
+        <v>14.76993219602855</v>
       </c>
       <c r="L18">
-        <v>7.045325020240243</v>
+        <v>10.64873164614345</v>
       </c>
       <c r="M18">
-        <v>12.95114978708279</v>
+        <v>17.2363614359777</v>
       </c>
       <c r="N18">
-        <v>17.20990425804021</v>
+        <v>24.54735328863129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.55380341068987</v>
+        <v>18.74880874676969</v>
       </c>
       <c r="C19">
-        <v>8.193440180637088</v>
+        <v>6.582152775989002</v>
       </c>
       <c r="D19">
-        <v>5.79473730471032</v>
+        <v>8.60674118421808</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.79277225804071</v>
+        <v>43.00305408552421</v>
       </c>
       <c r="G19">
-        <v>2.110192553128375</v>
+        <v>3.731092781584428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.29099333993554</v>
+        <v>14.75808946130879</v>
       </c>
       <c r="L19">
-        <v>7.035516807767002</v>
+        <v>10.64888821653147</v>
       </c>
       <c r="M19">
-        <v>12.91874124468532</v>
+        <v>17.23373984974241</v>
       </c>
       <c r="N19">
-        <v>17.21418092666628</v>
+        <v>24.5490898020592</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.90008325746482</v>
+        <v>18.82245061371383</v>
       </c>
       <c r="C20">
-        <v>8.322235780280955</v>
+        <v>6.63174198188339</v>
       </c>
       <c r="D20">
-        <v>5.76776304468668</v>
+        <v>8.603295652072985</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.23016369818308</v>
+        <v>43.07870984921019</v>
       </c>
       <c r="G20">
-        <v>2.106842985625205</v>
+        <v>3.730010762041392</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.61026107977797</v>
+        <v>14.81156222137017</v>
       </c>
       <c r="L20">
-        <v>7.079861947465732</v>
+        <v>10.64828803018395</v>
       </c>
       <c r="M20">
-        <v>13.06465006836985</v>
+        <v>17.2457517663073</v>
       </c>
       <c r="N20">
-        <v>17.19538946579275</v>
+        <v>24.54139754246682</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.04252013162272</v>
+        <v>19.0733736133093</v>
       </c>
       <c r="C21">
-        <v>8.746041024440803</v>
+        <v>6.794455221502842</v>
       </c>
       <c r="D21">
-        <v>5.676315258920028</v>
+        <v>8.59185644415756</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.70920701423378</v>
+        <v>43.34161142697415</v>
       </c>
       <c r="G21">
-        <v>2.095681441086439</v>
+        <v>3.726489110461469</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.65209457090237</v>
+        <v>14.99421176738616</v>
       </c>
       <c r="L21">
-        <v>7.232493105064822</v>
+        <v>10.64809585371102</v>
       </c>
       <c r="M21">
-        <v>13.55586740443928</v>
+        <v>17.28984330020465</v>
       </c>
       <c r="N21">
-        <v>17.14051487405431</v>
+        <v>24.51769264054844</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.77347724990598</v>
+        <v>19.23971865826845</v>
       </c>
       <c r="C22">
-        <v>9.016559388646078</v>
+        <v>6.897818258290868</v>
       </c>
       <c r="D22">
-        <v>5.615777078984778</v>
+        <v>8.584481603481549</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>41.68277573955299</v>
+        <v>43.5197648285987</v>
       </c>
       <c r="G22">
-        <v>2.088442349644553</v>
+        <v>3.724271890379621</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.31065504493607</v>
+        <v>15.11563206645816</v>
       </c>
       <c r="L22">
-        <v>7.334980348644114</v>
+        <v>10.64932654740694</v>
       </c>
       <c r="M22">
-        <v>13.87745863499984</v>
+        <v>17.32141588015592</v>
       </c>
       <c r="N22">
-        <v>17.11121612267531</v>
+        <v>24.50379600411734</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.38478317607056</v>
+        <v>19.15073826888531</v>
       </c>
       <c r="C23">
-        <v>8.872755850391435</v>
+        <v>6.842928568357072</v>
       </c>
       <c r="D23">
-        <v>5.648169045144947</v>
+        <v>8.588408485838409</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.16253055994062</v>
+        <v>43.42411209842152</v>
       </c>
       <c r="G23">
-        <v>2.092301801192773</v>
+        <v>3.72544756854559</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.96116831638434</v>
+        <v>15.05065191808619</v>
       </c>
       <c r="L23">
-        <v>7.280028944434499</v>
+        <v>10.64854583805566</v>
       </c>
       <c r="M23">
-        <v>13.70577796322431</v>
+        <v>17.30431456304004</v>
       </c>
       <c r="N23">
-        <v>17.12622521886383</v>
+        <v>24.51106682127186</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.88114596287654</v>
+        <v>18.8183927574385</v>
       </c>
       <c r="C24">
-        <v>8.315196958746752</v>
+        <v>6.629033256286457</v>
       </c>
       <c r="D24">
-        <v>5.769247028508962</v>
+        <v>8.603484345122201</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.20610801097821</v>
+        <v>43.07452204218509</v>
       </c>
       <c r="G24">
-        <v>2.107026547421139</v>
+        <v>3.730069752235354</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.59284614537791</v>
+        <v>14.80861405772984</v>
       </c>
       <c r="L24">
-        <v>7.077413082826769</v>
+        <v>10.6483141180986</v>
       </c>
       <c r="M24">
-        <v>13.05663319432213</v>
+        <v>17.24507802162923</v>
       </c>
       <c r="N24">
-        <v>17.19639130466526</v>
+        <v>24.54181191596427</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.19252578515032</v>
+        <v>18.47163878814503</v>
       </c>
       <c r="C25">
-        <v>7.684910852471207</v>
+        <v>6.386008921396928</v>
       </c>
       <c r="D25">
-        <v>5.897547848020688</v>
+        <v>8.620187701755629</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.1268863631801</v>
+        <v>42.72562048916783</v>
       </c>
       <c r="G25">
-        <v>2.12323193381423</v>
+        <v>3.735420576128568</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.01680395166247</v>
+        <v>14.55748258158339</v>
       </c>
       <c r="L25">
-        <v>6.870472632740963</v>
+        <v>10.6539082050652</v>
       </c>
       <c r="M25">
-        <v>12.36014393630977</v>
+        <v>17.19317812743603</v>
       </c>
       <c r="N25">
-        <v>17.29771869064125</v>
+        <v>24.58182135512627</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.22811586378697</v>
+        <v>16.89426056774525</v>
       </c>
       <c r="C2">
-        <v>6.197056111563782</v>
+        <v>7.1951723957032</v>
       </c>
       <c r="D2">
-        <v>8.632875937323508</v>
+        <v>5.991041363265091</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.49390039646894</v>
+        <v>35.6256505333082</v>
       </c>
       <c r="G2">
-        <v>3.739678117299573</v>
+        <v>2.135525541827322</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.38231300694844</v>
+        <v>13.00434741073576</v>
       </c>
       <c r="L2">
-        <v>10.66306920895478</v>
+        <v>6.727983589355592</v>
       </c>
       <c r="M2">
-        <v>17.16542106310357</v>
+        <v>11.85251590149385</v>
       </c>
       <c r="N2">
-        <v>24.61716378468749</v>
+        <v>17.39190347488552</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.07125904828559</v>
+        <v>15.982738887525</v>
       </c>
       <c r="C3">
-        <v>6.063082965097675</v>
+        <v>6.847159019241862</v>
       </c>
       <c r="D3">
-        <v>8.641722738869484</v>
+        <v>6.054233844057282</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.3529784190658</v>
+        <v>34.62919425157993</v>
       </c>
       <c r="G3">
-        <v>3.74276361763592</v>
+        <v>2.144119917459081</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.27024283754629</v>
+        <v>12.30743790530069</v>
       </c>
       <c r="L3">
-        <v>10.67242874732474</v>
+        <v>6.637549425448765</v>
       </c>
       <c r="M3">
-        <v>17.1531895000018</v>
+        <v>11.51308518513931</v>
       </c>
       <c r="N3">
-        <v>24.64478375928866</v>
+        <v>17.46686585144694</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.97924663105714</v>
+        <v>15.40877476978022</v>
       </c>
       <c r="C4">
-        <v>5.978027535611479</v>
+        <v>6.625594213955703</v>
       </c>
       <c r="D4">
-        <v>8.647278485840962</v>
+        <v>6.093080408373601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.27452276907935</v>
+        <v>34.02871525908592</v>
       </c>
       <c r="G4">
-        <v>3.744757467297474</v>
+        <v>2.14953770344037</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.20488810978653</v>
+        <v>11.86897366369814</v>
       </c>
       <c r="L4">
-        <v>10.67973122093919</v>
+        <v>6.585037157885234</v>
       </c>
       <c r="M4">
-        <v>17.14894012836349</v>
+        <v>11.30747374155372</v>
       </c>
       <c r="N4">
-        <v>24.66355115299412</v>
+        <v>17.51806499194723</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.94286994874786</v>
+        <v>15.17154684849145</v>
       </c>
       <c r="C5">
-        <v>5.942684148023247</v>
+        <v>6.533344420153201</v>
       </c>
       <c r="D5">
-        <v>8.649573815852971</v>
+        <v>6.108939915742228</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.24459811038556</v>
+        <v>33.78704001003469</v>
       </c>
       <c r="G5">
-        <v>3.74559504503969</v>
+        <v>2.151782427840556</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.17915078335512</v>
+        <v>11.68784064895853</v>
       </c>
       <c r="L5">
-        <v>10.68309843793562</v>
+        <v>6.564394500984368</v>
       </c>
       <c r="M5">
-        <v>17.14803057748789</v>
+        <v>11.22447746346425</v>
       </c>
       <c r="N5">
-        <v>24.67165372008756</v>
+        <v>17.54018567453396</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93689829509151</v>
+        <v>15.13196270605152</v>
       </c>
       <c r="C6">
-        <v>5.936774795921396</v>
+        <v>6.51790886841024</v>
       </c>
       <c r="D6">
-        <v>8.649956850834821</v>
+        <v>6.111575631491086</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.2397532132759</v>
+        <v>33.74709784003764</v>
       </c>
       <c r="G6">
-        <v>3.745735640805469</v>
+        <v>2.152157436126509</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.17493191744359</v>
+        <v>11.65762202971775</v>
       </c>
       <c r="L6">
-        <v>10.68368120600283</v>
+        <v>6.561012430551425</v>
       </c>
       <c r="M6">
-        <v>17.14792925344489</v>
+        <v>11.21074647727874</v>
       </c>
       <c r="N6">
-        <v>24.6730266052873</v>
+        <v>17.54393347103579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.97875146223086</v>
+        <v>15.40558854222699</v>
       </c>
       <c r="C7">
-        <v>5.977553618392738</v>
+        <v>6.624358001322104</v>
       </c>
       <c r="D7">
-        <v>8.647309314420632</v>
+        <v>6.093294154531983</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.27411088699623</v>
+        <v>34.02544346347468</v>
       </c>
       <c r="G7">
-        <v>3.744768661548654</v>
+        <v>2.149567825088286</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.20453734928192</v>
+        <v>11.86654048662066</v>
       </c>
       <c r="L7">
-        <v>10.67977504742072</v>
+        <v>6.584755703430045</v>
       </c>
       <c r="M7">
-        <v>17.14892453072561</v>
+        <v>11.30635109860814</v>
       </c>
       <c r="N7">
-        <v>24.66365858615805</v>
+        <v>17.5183582868642</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.17316316103315</v>
+        <v>16.58307171658488</v>
       </c>
       <c r="C8">
-        <v>6.151454133579779</v>
+        <v>7.076823291177639</v>
       </c>
       <c r="D8">
-        <v>8.635900743341073</v>
+        <v>6.012831564706611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.44364629340392</v>
+        <v>35.27981637860447</v>
       </c>
       <c r="G8">
-        <v>3.740721432848829</v>
+        <v>2.138460608010032</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.34296987342779</v>
+        <v>12.7663514714087</v>
       </c>
       <c r="L8">
-        <v>10.66597364402041</v>
+        <v>6.696175499044609</v>
       </c>
       <c r="M8">
-        <v>17.16052824229754</v>
+        <v>11.734950191342</v>
       </c>
       <c r="N8">
-        <v>24.62631172022163</v>
+        <v>17.41664961817632</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.58672451856243</v>
+        <v>18.77011626335239</v>
       </c>
       <c r="C9">
-        <v>6.469468434205189</v>
+        <v>7.901173208160579</v>
       </c>
       <c r="D9">
-        <v>8.614501269803004</v>
+        <v>5.854543498510145</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.8392972806772</v>
+        <v>37.8229270937948</v>
       </c>
       <c r="G9">
-        <v>3.733569035695276</v>
+        <v>2.117722239246933</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.64064215197469</v>
+        <v>14.56147035626021</v>
       </c>
       <c r="L9">
-        <v>10.6512415297636</v>
+        <v>6.938641113940474</v>
       </c>
       <c r="M9">
-        <v>17.20904494051237</v>
+        <v>12.59410780620103</v>
       </c>
       <c r="N9">
-        <v>24.56742986472188</v>
+        <v>17.26039051563406</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.90775672893032</v>
+        <v>20.29456177899898</v>
       </c>
       <c r="C10">
-        <v>6.688082070384523</v>
+        <v>8.468747207733514</v>
       </c>
       <c r="D10">
-        <v>8.599358102883734</v>
+        <v>5.736616268677986</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.16723786505373</v>
+        <v>39.73475587204454</v>
       </c>
       <c r="G10">
-        <v>3.728786628824841</v>
+        <v>2.103008829175022</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.873583012511</v>
+        <v>15.97189796019486</v>
       </c>
       <c r="L10">
-        <v>10.64791801145669</v>
+        <v>7.131486622369038</v>
       </c>
       <c r="M10">
-        <v>17.26021952816489</v>
+        <v>13.23260551699688</v>
       </c>
       <c r="N10">
-        <v>24.53292803401937</v>
+        <v>17.17520164347935</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.05697176914917</v>
+        <v>20.96940733312805</v>
       </c>
       <c r="C11">
-        <v>6.784083823303747</v>
+        <v>8.718960166214544</v>
       </c>
       <c r="D11">
-        <v>8.592591761483728</v>
+        <v>5.682282422765476</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.32420334655774</v>
+        <v>40.61296245486054</v>
       </c>
       <c r="G11">
-        <v>3.726712381589509</v>
+        <v>2.09640116351243</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.98225321454209</v>
+        <v>16.58590142366453</v>
       </c>
       <c r="L11">
-        <v>10.64802918043385</v>
+        <v>7.222444045310501</v>
       </c>
       <c r="M11">
-        <v>17.28682502319228</v>
+        <v>13.52400187377159</v>
       </c>
       <c r="N11">
-        <v>24.51913568760561</v>
+        <v>17.14369682315188</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.11388379501154</v>
+        <v>21.22226145202042</v>
       </c>
       <c r="C12">
-        <v>6.819927446854318</v>
+        <v>8.812597559402876</v>
       </c>
       <c r="D12">
-        <v>8.590046896974343</v>
+        <v>5.661577821710682</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>43.38473173355249</v>
+        <v>40.94670635201407</v>
       </c>
       <c r="G12">
-        <v>3.725941392642641</v>
+        <v>2.09390876012407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.02375847768839</v>
+        <v>16.81456743858592</v>
       </c>
       <c r="L12">
-        <v>10.64830402943369</v>
+        <v>7.257356090974619</v>
       </c>
       <c r="M12">
-        <v>17.29737326164839</v>
+        <v>13.63444342768705</v>
       </c>
       <c r="N12">
-        <v>24.51418660757474</v>
+        <v>17.13288581722427</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10160943403612</v>
+        <v>21.1679245249143</v>
       </c>
       <c r="C13">
-        <v>6.812230788928238</v>
+        <v>8.792479902713996</v>
       </c>
       <c r="D13">
-        <v>8.590594208192268</v>
+        <v>5.666043212236016</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>43.37164793213128</v>
+        <v>40.87477600407043</v>
       </c>
       <c r="G13">
-        <v>3.726106796058088</v>
+        <v>2.094445151904182</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.01480437975836</v>
+        <v>16.76548895032676</v>
       </c>
       <c r="L13">
-        <v>10.64823449528827</v>
+        <v>7.24981623817672</v>
       </c>
       <c r="M13">
-        <v>17.29508054278421</v>
+        <v>13.61065406002314</v>
       </c>
       <c r="N13">
-        <v>24.51524030126387</v>
+        <v>17.13516307570197</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.06164607134108</v>
+        <v>20.99026376991403</v>
       </c>
       <c r="C14">
-        <v>6.787043002963744</v>
+        <v>8.726685838433974</v>
       </c>
       <c r="D14">
-        <v>8.592382046294043</v>
+        <v>5.680581826117733</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.32916140893022</v>
+        <v>40.64039605216568</v>
       </c>
       <c r="G14">
-        <v>3.726648662064826</v>
+        <v>2.096195931416959</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.98566097875842</v>
+        <v>16.60479018869944</v>
       </c>
       <c r="L14">
-        <v>10.64804713173815</v>
+        <v>7.225306862175931</v>
       </c>
       <c r="M14">
-        <v>17.28768337721156</v>
+        <v>13.53308621459421</v>
       </c>
       <c r="N14">
-        <v>24.51872303584139</v>
+        <v>17.14278449648017</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03721896373105</v>
+        <v>20.88109058769288</v>
       </c>
       <c r="C15">
-        <v>6.771547908993336</v>
+        <v>8.686241355573001</v>
       </c>
       <c r="D15">
-        <v>8.593479409280132</v>
+        <v>5.689469311685036</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.30327807164682</v>
+        <v>40.49698567037682</v>
       </c>
       <c r="G15">
-        <v>3.726982454376524</v>
+        <v>2.097269528355316</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.96785489643927</v>
+        <v>16.50586090948912</v>
       </c>
       <c r="L15">
-        <v>10.6479626566822</v>
+        <v>7.210355317903574</v>
       </c>
       <c r="M15">
-        <v>17.28321388432253</v>
+        <v>13.48558526353674</v>
       </c>
       <c r="N15">
-        <v>24.52089197089433</v>
+        <v>17.14760100413518</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.89806489049617</v>
+        <v>20.25008189014608</v>
       </c>
       <c r="C16">
-        <v>6.681737504087555</v>
+        <v>8.452237359826313</v>
       </c>
       <c r="D16">
-        <v>8.599802744913907</v>
+        <v>5.74015072305323</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.15713387907557</v>
+        <v>39.67753003569995</v>
       </c>
       <c r="G16">
-        <v>3.72892421698855</v>
+        <v>2.103442166777624</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.8665326258405</v>
+        <v>15.9312264044315</v>
       </c>
       <c r="L16">
-        <v>10.64794335357515</v>
+        <v>7.12560763650909</v>
       </c>
       <c r="M16">
-        <v>17.25854731037822</v>
+        <v>13.21357733485651</v>
       </c>
       <c r="N16">
-        <v>24.53386769881821</v>
+        <v>17.17741280768913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.81347697803073</v>
+        <v>19.85818306325538</v>
       </c>
       <c r="C17">
-        <v>6.625748224009552</v>
+        <v>8.306661151216781</v>
       </c>
       <c r="D17">
-        <v>8.603713108737194</v>
+        <v>5.771045096553864</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.06945174775024</v>
+        <v>39.1769595474371</v>
       </c>
       <c r="G17">
-        <v>3.730141310372184</v>
+        <v>2.107249069812883</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.80504284198866</v>
+        <v>15.57172236190858</v>
       </c>
       <c r="L17">
-        <v>10.64834678771143</v>
+        <v>7.074447304383449</v>
       </c>
       <c r="M17">
-        <v>17.24426364475044</v>
+        <v>13.04691787293213</v>
       </c>
       <c r="N17">
-        <v>24.54231534425355</v>
+        <v>17.19761012221295</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.76512615972327</v>
+        <v>19.63101797470107</v>
       </c>
       <c r="C18">
-        <v>6.593221041815343</v>
+        <v>8.222175809768647</v>
       </c>
       <c r="D18">
-        <v>8.605973775379553</v>
+        <v>5.788751962560336</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.01975387472878</v>
+        <v>38.88984502062485</v>
       </c>
       <c r="G18">
-        <v>3.730850889432067</v>
+        <v>2.10944691606857</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.76993219602855</v>
+        <v>15.36233848976749</v>
       </c>
       <c r="L18">
-        <v>10.64873164614345</v>
+        <v>7.045325020240273</v>
       </c>
       <c r="M18">
-        <v>17.2363614359777</v>
+        <v>12.95114978708281</v>
       </c>
       <c r="N18">
-        <v>24.54735328863129</v>
+        <v>17.20990425804025</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.74880874676969</v>
+        <v>19.55380341068989</v>
       </c>
       <c r="C19">
-        <v>6.582152775989002</v>
+        <v>8.193440180637003</v>
       </c>
       <c r="D19">
-        <v>8.60674118421808</v>
+        <v>5.794737304710387</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.00305408552421</v>
+        <v>38.79277225804078</v>
       </c>
       <c r="G19">
-        <v>3.731092781584428</v>
+        <v>2.110192553128375</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.75808946130879</v>
+        <v>15.29099333993557</v>
       </c>
       <c r="L19">
-        <v>10.64888821653147</v>
+        <v>7.035516807767038</v>
       </c>
       <c r="M19">
-        <v>17.23373984974241</v>
+        <v>12.91874124468534</v>
       </c>
       <c r="N19">
-        <v>24.5490898020592</v>
+        <v>17.21418092666633</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.82245061371383</v>
+        <v>19.90008325746481</v>
       </c>
       <c r="C20">
-        <v>6.63174198188339</v>
+        <v>8.32223578028073</v>
       </c>
       <c r="D20">
-        <v>8.603295652072985</v>
+        <v>5.767763044686676</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.07870984921019</v>
+        <v>39.23016369818295</v>
       </c>
       <c r="G20">
-        <v>3.730010762041392</v>
+        <v>2.106842985624942</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.81156222137017</v>
+        <v>15.61026107977795</v>
       </c>
       <c r="L20">
-        <v>10.64828803018395</v>
+        <v>7.079861947465687</v>
       </c>
       <c r="M20">
-        <v>17.2457517663073</v>
+        <v>13.06465006836982</v>
       </c>
       <c r="N20">
-        <v>24.54139754246682</v>
+        <v>17.19538946579268</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.0733736133093</v>
+        <v>21.04252013162273</v>
       </c>
       <c r="C21">
-        <v>6.794455221502842</v>
+        <v>8.746041024440693</v>
       </c>
       <c r="D21">
-        <v>8.59185644415756</v>
+        <v>5.67631525892016</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.34161142697415</v>
+        <v>40.70920701423373</v>
       </c>
       <c r="G21">
-        <v>3.726489110461469</v>
+        <v>2.095681441086573</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.99421176738616</v>
+        <v>16.65209457090235</v>
       </c>
       <c r="L21">
-        <v>10.64809585371102</v>
+        <v>7.232493105064844</v>
       </c>
       <c r="M21">
-        <v>17.28984330020465</v>
+        <v>13.5558674044393</v>
       </c>
       <c r="N21">
-        <v>24.51769264054844</v>
+        <v>17.14051487405427</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.23971865826845</v>
+        <v>21.77347724990597</v>
       </c>
       <c r="C22">
-        <v>6.897818258290868</v>
+        <v>9.016559388646186</v>
       </c>
       <c r="D22">
-        <v>8.584481603481549</v>
+        <v>5.615777078984905</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.5197648285987</v>
+        <v>41.68277573955304</v>
       </c>
       <c r="G22">
-        <v>3.724271890379621</v>
+        <v>2.088442349644416</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.11563206645816</v>
+        <v>17.31065504493602</v>
       </c>
       <c r="L22">
-        <v>10.64932654740694</v>
+        <v>7.33498034864411</v>
       </c>
       <c r="M22">
-        <v>17.32141588015592</v>
+        <v>13.87745863499984</v>
       </c>
       <c r="N22">
-        <v>24.50379600411734</v>
+        <v>17.1112161226754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.15073826888531</v>
+        <v>21.38478317607058</v>
       </c>
       <c r="C23">
-        <v>6.842928568357072</v>
+        <v>8.872755850391426</v>
       </c>
       <c r="D23">
-        <v>8.588408485838409</v>
+        <v>5.64816904514501</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>43.42411209842152</v>
+        <v>41.16253055994071</v>
       </c>
       <c r="G23">
-        <v>3.72544756854559</v>
+        <v>2.092301801192909</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.05065191808619</v>
+        <v>16.96116831638434</v>
       </c>
       <c r="L23">
-        <v>10.64854583805566</v>
+        <v>7.280028944434493</v>
       </c>
       <c r="M23">
-        <v>17.30431456304004</v>
+        <v>13.70577796322432</v>
       </c>
       <c r="N23">
-        <v>24.51106682127186</v>
+        <v>17.12622521886389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.8183927574385</v>
+        <v>19.88114596287653</v>
       </c>
       <c r="C24">
-        <v>6.629033256286457</v>
+        <v>8.315196958746677</v>
       </c>
       <c r="D24">
-        <v>8.603484345122201</v>
+        <v>5.76924702850903</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.07452204218509</v>
+        <v>39.20610801097816</v>
       </c>
       <c r="G24">
-        <v>3.730069752235354</v>
+        <v>2.10702654742127</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.80861405772984</v>
+        <v>15.5928461453779</v>
       </c>
       <c r="L24">
-        <v>10.6483141180986</v>
+        <v>7.077413082826786</v>
       </c>
       <c r="M24">
-        <v>17.24507802162923</v>
+        <v>13.05663319432213</v>
       </c>
       <c r="N24">
-        <v>24.54181191596427</v>
+        <v>17.19639130466516</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.47163878814503</v>
+        <v>18.19252578515032</v>
       </c>
       <c r="C25">
-        <v>6.386008921396928</v>
+        <v>7.684910852471082</v>
       </c>
       <c r="D25">
-        <v>8.620187701755629</v>
+        <v>5.897547848020814</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.72562048916783</v>
+        <v>37.12688636318002</v>
       </c>
       <c r="G25">
-        <v>3.735420576128568</v>
+        <v>2.12323193381423</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.55748258158339</v>
+        <v>14.01680395166244</v>
       </c>
       <c r="L25">
-        <v>10.6539082050652</v>
+        <v>6.870472632740944</v>
       </c>
       <c r="M25">
-        <v>17.19317812743603</v>
+        <v>12.36014393630978</v>
       </c>
       <c r="N25">
-        <v>24.58182135512627</v>
+        <v>17.29771869064119</v>
       </c>
       <c r="O25">
         <v>0</v>
